--- a/direcciones.xlsx
+++ b/direcciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhoen\OneDrive\Desktop\repos\omar-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\GitHub\omar-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9765FD56-3984-458F-9106-E64E3E33D91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97C0E4C-61D1-4902-92CD-EF97BF9B7882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Dispositivo</t>
   </si>
@@ -108,6 +108,63 @@
   </si>
   <si>
     <t>255.255.255.255</t>
+  </si>
+  <si>
+    <t>Sede 2</t>
+  </si>
+  <si>
+    <t>interfaz</t>
+  </si>
+  <si>
+    <t>ipv4</t>
+  </si>
+  <si>
+    <t>mascara</t>
+  </si>
+  <si>
+    <t>ipv6</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>vlan1</t>
+  </si>
+  <si>
+    <t>10.2.2.5</t>
+  </si>
+  <si>
+    <t>10.1.1.4</t>
+  </si>
+  <si>
+    <t>10.2.2.4</t>
+  </si>
+  <si>
+    <t>Server0</t>
+  </si>
+  <si>
+    <t>10.1.1.5</t>
+  </si>
+  <si>
+    <t>PC1</t>
+  </si>
+  <si>
+    <t>Pc2</t>
+  </si>
+  <si>
+    <t>fa0/0</t>
+  </si>
+  <si>
+    <t>10.2.2.6</t>
+  </si>
+  <si>
+    <t>10.2.2.7</t>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
   </si>
 </sst>
 </file>
@@ -434,22 +491,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:F12"/>
+  <dimension ref="B2:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -465,16 +531,43 @@
       <c r="F3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="K4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" t="s">
         <v>8</v>
@@ -485,8 +578,18 @@
       <c r="E5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="K5" s="1"/>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" t="s">
         <v>7</v>
@@ -498,8 +601,20 @@
         <f>$E$5</f>
         <v>255.255.255.255</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -513,8 +628,20 @@
         <f t="shared" ref="E7:E12" si="0">$E$5</f>
         <v>255.255.255.255</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" t="s">
         <v>13</v>
@@ -526,8 +653,20 @@
         <f t="shared" si="0"/>
         <v>255.255.255.255</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" t="s">
         <v>14</v>
@@ -539,8 +678,20 @@
         <f t="shared" si="0"/>
         <v>255.255.255.255</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" t="s">
         <v>15</v>
@@ -553,7 +704,7 @@
         <v>255.255.255.255</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" t="s">
         <v>16</v>
@@ -566,7 +717,7 @@
         <v>255.255.255.255</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" t="s">
         <v>17</v>
@@ -580,9 +731,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B12"/>
+    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/direcciones.xlsx
+++ b/direcciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\GitHub\omar-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhoen\OneDrive\Desktop\repos\omar-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97C0E4C-61D1-4902-92CD-EF97BF9B7882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCA4499-7167-4283-BE88-E42D5672F08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Dispositivo</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>10.1.174.2</t>
-  </si>
-  <si>
-    <t>255.255.255.255</t>
   </si>
   <si>
     <t>Sede 2</t>
@@ -493,11 +490,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -512,7 +509,7 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
@@ -535,16 +532,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
         <v>25</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>26</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
@@ -555,16 +552,16 @@
         <v>6</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L4" t="s">
         <v>7</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
@@ -576,17 +573,17 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" t="s">
         <v>8</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
@@ -599,19 +596,19 @@
       </c>
       <c r="E6" t="str">
         <f>$E$5</f>
-        <v>255.255.255.255</v>
+        <v>255.255.255.0</v>
       </c>
       <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
         <v>30</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>31</v>
       </c>
-      <c r="M6" t="s">
-        <v>32</v>
-      </c>
       <c r="N6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -626,19 +623,19 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" ref="E7:E12" si="0">$E$5</f>
-        <v>255.255.255.255</v>
+        <v>255.255.255.0</v>
       </c>
       <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" t="s">
         <v>35</v>
       </c>
-      <c r="L7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" t="s">
-        <v>36</v>
-      </c>
       <c r="N7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
@@ -651,19 +648,19 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>255.255.255.255</v>
+        <v>255.255.255.0</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" t="s">
         <v>39</v>
       </c>
-      <c r="M8" t="s">
-        <v>40</v>
-      </c>
       <c r="N8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
@@ -676,19 +673,19 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>255.255.255.255</v>
+        <v>255.255.255.0</v>
       </c>
       <c r="K9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" t="s">
-        <v>39</v>
-      </c>
       <c r="M9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" t="s">
         <v>41</v>
-      </c>
-      <c r="N9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
@@ -701,7 +698,7 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>255.255.255.255</v>
+        <v>255.255.255.0</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
@@ -714,7 +711,7 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>255.255.255.255</v>
+        <v>255.255.255.0</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
@@ -727,7 +724,7 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>255.255.255.255</v>
+        <v>255.255.255.0</v>
       </c>
     </row>
   </sheetData>

--- a/direcciones.xlsx
+++ b/direcciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhoen\OneDrive\Desktop\repos\omar-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\GitHub\omar-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCA4499-7167-4283-BE88-E42D5672F08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FF4F11-4ABD-4C0C-B0D0-CA539BC9B2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1785" yWindow="1395" windowWidth="24375" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,9 +143,6 @@
     <t>Server0</t>
   </si>
   <si>
-    <t>10.1.1.5</t>
-  </si>
-  <si>
     <t>PC1</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>255.255.255.0</t>
+  </si>
+  <si>
+    <t>10.2.1.5</t>
   </si>
 </sst>
 </file>
@@ -491,10 +491,10 @@
   <dimension ref="B2:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -561,7 +561,7 @@
         <v>32</v>
       </c>
       <c r="N4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
@@ -573,7 +573,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" t="s">
@@ -583,7 +583,7 @@
         <v>33</v>
       </c>
       <c r="N5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
@@ -608,7 +608,7 @@
         <v>31</v>
       </c>
       <c r="N6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -629,13 +629,13 @@
         <v>34</v>
       </c>
       <c r="L7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="N7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
@@ -651,16 +651,16 @@
         <v>255.255.255.0</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" t="s">
         <v>38</v>
       </c>
-      <c r="M8" t="s">
-        <v>39</v>
-      </c>
       <c r="N8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
@@ -676,16 +676,16 @@
         <v>255.255.255.0</v>
       </c>
       <c r="K9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" t="s">
         <v>37</v>
       </c>
-      <c r="L9" t="s">
-        <v>38</v>
-      </c>
       <c r="M9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" t="s">
         <v>40</v>
-      </c>
-      <c r="N9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
